--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0811111195510120</v>
+        <v>0811111195510126</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,89 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0811111195510126</v>
+        <v>08111111955101261521531512112100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,12 +604,101 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C21" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>5</v>
+      </c>
+      <c r="C25" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>6</v>
+      </c>
+      <c r="C30" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08111111955101261521531512112100</v>
+        <v>0811111195510126152153151211210101012112111854150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>688_山归来橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0811111195510126152153151211210101012112111854150</v>
+        <v>08111111955101261521531512112101010121121118541510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,87 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>333_狼尾草_wolf tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08111111955101261521531512112101010121121118541510</v>
+        <v>08111111955101261521531512112101010121121118541510155151015102015100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,10 +776,92 @@
         <v xml:space="preserve">350_千层金红_Melaleuca bracteata
 （dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -837,7 +919,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08111111955101261521531512112101010121121118541510155151015102015100</v>
+        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -858,6 +858,9 @@
       <c r="C51" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -919,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020200</v>
+        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020205</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,9 +862,429 @@
         <v>5</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8</v>
+      </c>
+      <c r="C52" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>9</v>
+      </c>
+      <c r="C67" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>441_蓝星球_Echinops_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>10</v>
+      </c>
+      <c r="C72" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F72" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>623_粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>112_绣球青花瓷_Hydrangea Blue&amp;White Porcelain_Hydrangea L._1stem</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F75" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F76" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>11</v>
+      </c>
+      <c r="C77" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>12</v>
+      </c>
+      <c r="C86" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F87" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F92" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F95" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>200_粉佳人_Nirvana_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>13</v>
+      </c>
+      <c r="C99" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F99" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F100" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -922,7 +1342,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020205</v>
+        <v>0811111195510126152153151211210101012112111854151015515101510201510101051020101010202052010102510101510101551010551515101054010103530102910101015510102010101051510105510101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -1281,6 +1281,9 @@
       <c r="C101" t="str">
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
+      <c r="F101" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1342,7 +1345,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0811111195510126152153151211210101012112111854151015515101510201510101051020101010202052010102510101510101551010551515101054010103530102910101015510102010101051510105510101050</v>
+        <v>08111111955101261521531512112101010121121118541510155151015102015101010510201010102020520101025101015101015510105515151010540101035301029101010155101020101010515101055101010510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,9 +1285,179 @@
         <v>10</v>
       </c>
     </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>14</v>
+      </c>
+      <c r="C104" t="str">
+        <v>810_鸡冠花红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F104" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F105" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F106" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F107" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F108" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F109" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>15</v>
+      </c>
+      <c r="C110" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F111" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>16</v>
+      </c>
+      <c r="C112" t="str">
+        <v>476_酸浆果_Physalis_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="str">
+        <v>568_玫瑰果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F113" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>726_鸢尾叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F114" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F115" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F116" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>17</v>
+      </c>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>531_小南瓜_pumpkin stick_undefined_1bunch</v>
+      </c>
+      <c r="F118" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1345,7 +1515,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08111111955101261521531512112101010121121118541510155151015102015101010510201010102020520101025101015101015510105515151010540101035301029101010155101020101010515101055101010510</v>
+        <v>08111111955101261521531512112101010121121118541510155151015102015101010510201010102020520101025101015101015510105515151010540101035301029101010155101020101010515101055101010510558555510101010112105101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -1454,6 +1454,9 @@
       <c r="C121" t="str">
         <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
+      <c r="F121" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1515,7 +1518,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>08111111955101261521531512112101010121121118541510155151015102015101010510201010102020520101025101015101015510105515151010540101035301029101010155101020101010515101055101010510558555510101010112105101010100</v>
+        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020205201010251010151010155101055151510105401010353010291010101551010201010105151010551010105105585555101010101121051010101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1458,9 +1458,60 @@
         <v>10</v>
       </c>
     </row>
+    <row r="122">
+      <c r="C122" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F122" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F123" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F124" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F125" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v/>
+      </c>
+      <c r="C126" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F126" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F127" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L127"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1518,7 +1569,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020205201010251010151010155101055151510105401010353010291010101551010201010105151010551010105105585555101010101121051010101010</v>
+        <v>081111119551012615215315121121010101211211185415101551510151020151010105102010101020205201010251010151010155101055151510105401010353010291010101551010201010105151010551010105105585555101010101121051010101010151510101010</v>
       </c>
     </row>
   </sheetData>
